--- a/day10.xlsx
+++ b/day10.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarsh/Downloads/Accio_excel/Excel-for-DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB807CE7-210C-3A4F-8DA0-5A3F2E65F748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80BF559-AAA1-8D4C-B02A-7DADE194577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="4" xr2:uid="{BCCC5916-0B88-954D-B6FF-606E3F11659F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{BCCC5916-0B88-954D-B6FF-606E3F11659F}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="1" r:id="rId1"/>
     <sheet name="Hlookup_demo" sheetId="4" r:id="rId2"/>
     <sheet name="Vlookup_demo" sheetId="2" r:id="rId3"/>
-    <sheet name="Agenda" sheetId="3" r:id="rId4"/>
-    <sheet name="XLOOKUP" sheetId="5" r:id="rId5"/>
+    <sheet name="Xlookup_demo" sheetId="6" r:id="rId4"/>
+    <sheet name="Agenda" sheetId="3" r:id="rId5"/>
+    <sheet name="XLOOKUP" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>Student Id</t>
   </si>
@@ -253,6 +276,36 @@
   </si>
   <si>
     <t>Only available in Excel 2021 and Microsoft 365 (from 2019).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course </t>
+  </si>
+  <si>
+    <t>Ph Num</t>
+  </si>
+  <si>
+    <t>CHOOSECOLS</t>
+  </si>
+  <si>
+    <t>Choose Columns --- chooses/picks up the number of columns mentioned for the array…</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Bsc chem</t>
+  </si>
+  <si>
+    <t>XMATCH</t>
+  </si>
+  <si>
+    <t>Xmatch -- is used to get the position of columns we want to select</t>
+  </si>
+  <si>
+    <t>Bsc Physics</t>
+  </si>
+  <si>
+    <t>Bsc</t>
   </si>
 </sst>
 </file>
@@ -320,7 +373,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,6 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,6 +515,143 @@
         <a:xfrm>
           <a:off x="1235086" y="2096381"/>
           <a:ext cx="1472762" cy="483159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1475087</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1383086</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A355275-1B30-C8CC-E026-5EC30C88D2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1475087" y="3098153"/>
+          <a:ext cx="2181056" cy="1490915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1404862</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4965457</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93988281-B029-851B-1566-760BB35744C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1404862" y="5322675"/>
+          <a:ext cx="5833652" cy="1460408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1500540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3944684</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>68110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E57ACB-5563-BEE6-1D51-A41B6A1F8253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1500540" y="7644267"/>
+          <a:ext cx="4717201" cy="917474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C31E84-CD22-734E-898E-E76354B313D7}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="266" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="266" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,6 +1199,15 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6:C6">_xlfn.XMATCH(C9:D9,A1:A4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>16</v>
@@ -1024,6 +1230,17 @@
       </c>
       <c r="D10" t="str">
         <f>HLOOKUP(A10,A1:G4,4,FALSE)</f>
+        <v>Fake num 6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="str" cm="1">
+        <f t="array" ref="C12:C13">_xlfn.CHOOSEROWS(_xlfn.XLOOKUP(A10,B1:G1,B2:G4),_xlfn.XMATCH(C9:D9,A2:A4))</f>
+        <v>MBA Ops</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="str">
         <v>Fake num 6</v>
       </c>
     </row>
@@ -1036,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE86108-1CE3-064A-8B97-F56EB78A5BD4}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="268" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="268" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1289,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1112,12 +1329,12 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="str">
-        <f>VLOOKUP(F4,A2:D7,3)</f>
-        <v>Ba Soci</v>
+        <f>VLOOKUP(F4,A2:D7,3,0)</f>
+        <v>Bsc Chem</v>
       </c>
       <c r="I4" s="5" t="str">
-        <f>VLOOKUP(F4,A2:D7,4)</f>
-        <v>Fake num 5</v>
+        <f>VLOOKUP(F4,A2:D7,4,0)</f>
+        <v>Fake num 2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1182,10 +1399,263 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3824A6DC-FCDA-DC49-A957-A813C2ECAB9B}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="225" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1201</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1202</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>30000</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1203</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>15000</v>
+      </c>
+      <c r="G4">
+        <v>1201</v>
+      </c>
+      <c r="I4" t="str" cm="1">
+        <f t="array" ref="I4:J4">_xlfn.XLOOKUP(G4,$A$2:$A$7,$C$2:$D$7,"Error message according to my Choice",0,-1)</f>
+        <v>Bsc Physics</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Fake num 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1204</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1205</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1206</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1201</v>
+      </c>
+      <c r="I9" t="str" cm="1">
+        <f t="array" ref="I9:J9">_xlfn.CHOOSECOLS(_xlfn.XLOOKUP(G9,$A$2:$A$7,$B$2:$D$7,"Error message according to my Choice",0,-1),1,3)</f>
+        <v>Jennifer</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Fake num 1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1202</v>
+      </c>
+      <c r="I10" t="str" cm="1">
+        <f t="array" ref="I10:J10">_xlfn.CHOOSECOLS(_xlfn.XLOOKUP(G10,$A$2:$A$7,$B$2:$D$7,"Error message according to my Choice",0,-1),1,3)</f>
+        <v>Shyaam</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Fake num 2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13:J13">_xlfn.CHOOSECOLS(_xlfn.XLOOKUP(G13,C2:C7,A2:E7),_xlfn.XMATCH(I12:J12,A1:E1,0))</f>
+        <v>1202</v>
+      </c>
+      <c r="J13">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16:J16">_xlfn.XMATCH(I12:J12,A1:E1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="str" cm="1">
+        <f t="array" ref="I20:K20">_xlfn.XLOOKUP(G20&amp;"*",$C$2:$C$7,$B$2:$D$7,"Error message according to my Choice",2)</f>
+        <v>Jennifer</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Bsc Physics</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Fake num 1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17E4239-9D1A-CE43-9758-B3B62BDE2CAC}">
   <dimension ref="B3:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="291" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="291" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1268,18 +1738,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1B9154-4DA2-A841-AC79-ED9EE60DAF49}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A29" zoomScale="157" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1294,13 +1765,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1349,24 +1820,24 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1414,7 +1885,18 @@
         <v>70</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/day10.xlsx
+++ b/day10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarsh/Downloads/Accio_excel/Excel-for-DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80BF559-AAA1-8D4C-B02A-7DADE194577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724BD015-7BB1-2C46-9975-3018299B47CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{BCCC5916-0B88-954D-B6FF-606E3F11659F}"/>
   </bookViews>

--- a/day10.xlsx
+++ b/day10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarsh/Downloads/Accio_excel/Excel-for-DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724BD015-7BB1-2C46-9975-3018299B47CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EAB1C-81E7-B947-A21B-F02803BC958B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{BCCC5916-0B88-954D-B6FF-606E3F11659F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17500" activeTab="3" xr2:uid="{BCCC5916-0B88-954D-B6FF-606E3F11659F}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C31E84-CD22-734E-898E-E76354B313D7}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="266" workbookViewId="0">
+    <sheetView zoomScale="266" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3824A6DC-FCDA-DC49-A957-A813C2ECAB9B}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="225" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1489,7 +1489,7 @@
         <v>1201</v>
       </c>
       <c r="I4" t="str" cm="1">
-        <f t="array" ref="I4:J4">_xlfn.XLOOKUP(G4,$A$2:$A$7,$C$2:$D$7,"Error message according to my Choice",0,-1)</f>
+        <f t="array" ref="I4:J4">_xlfn.XLOOKUP(G4,$A$2:$A$7,$C$2:$D$7,"Error message according to my Choice",0,1)</f>
         <v>Bsc Physics</v>
       </c>
       <c r="J4" t="str">
@@ -1742,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1B9154-4DA2-A841-AC79-ED9EE60DAF49}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
